--- a/CSC3510 S2021/Lectures/TestingTypes.xlsx
+++ b/CSC3510 S2021/Lectures/TestingTypes.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17550" windowHeight="7590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17550" windowHeight="7590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Decision Coverage " sheetId="2" r:id="rId2"/>
+    <sheet name="ISTQB Talk" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -150,6 +152,1064 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3961213" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1771650" y="419100"/>
+          <a:ext cx="3961213" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Decision Table testing </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>https://www.edureka.co/blog/decision-table-in-software-testing/</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5314359" cy="1188146"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990725" y="1609725"/>
+          <a:ext cx="5314359" cy="1188146"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> used for testing the system behavior for different input combinations.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Systematic</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> table lists </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> combinations and their corresponding system behavior</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5314359" cy="1626471"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="3057525"/>
+          <a:ext cx="5314359" cy="1626471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Helpful for: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>stating complex</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> business rules or logic</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>decding the various combinations of input and expectations</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Working through requirement scenarios </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5314359" cy="1626471"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="4886325"/>
+          <a:ext cx="5314359" cy="1626471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Not so</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> heloful for: </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>stating complex</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> business rules or logic</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>decding the various combinations of input and expectations</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>work out the needed input to completely cover tests</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>189867</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>47071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="6858000"/>
+          <a:ext cx="5066667" cy="4428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>35858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>589659</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>152085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="15275858"/>
+          <a:ext cx="6266559" cy="2211727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2806474" cy="1125693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7810500" y="6686550"/>
+          <a:ext cx="2806474" cy="1125693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Decision table consists of inputs and ACTIONS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Would not include: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1. impossible conditions</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2. Possible but not feasible combinations</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Combinations not changing outcome</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>332257</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>161630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="11325225"/>
+          <a:ext cx="8942857" cy="2361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>551773</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>75818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="13782675"/>
+          <a:ext cx="5419048" cy="3057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5603640" cy="1470146"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7553326" y="13754100"/>
+          <a:ext cx="5603640" cy="1470146"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Rules 1,2, 3, 4, and 5 cover the same action Item “Invalid Credentials” with options Blank and Invalid. Hence, we can consider any one of these test cases TC01 OR TC02 OR TC03 OR TC04 OR TC05</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Rules 6,7, and 8 cover the same action Item “Invalid Credentials” with options Valid and Invalid. Hence, we can consider any of these test cases TC06 OR TC07 OR TC08</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Rule 9 covers the action item “Login Successfully” with all valid options. Hence, we should consider the test case TC09.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5099345" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6848475" y="552450"/>
+          <a:ext cx="5099345" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>https://www.qaoncloud.com/what-is-decision-table-testing-explained-with-example/</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>503361</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180484</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600074" y="195545"/>
+          <a:ext cx="9047287" cy="3032939"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428114</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="3429000"/>
+          <a:ext cx="4085714" cy="4085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590087</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>56943</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6638925" y="4305300"/>
+          <a:ext cx="3704762" cy="1657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -418,8 +1478,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="R10" sqref="R10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
